--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Psap-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Psap-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>308.554992397642</v>
+        <v>685.3782603333333</v>
       </c>
       <c r="H2">
-        <v>308.554992397642</v>
+        <v>2056.134781</v>
       </c>
       <c r="I2">
-        <v>0.5292731197506306</v>
+        <v>0.7131285654702259</v>
       </c>
       <c r="J2">
-        <v>0.5292731197506306</v>
+        <v>0.7131285654702259</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>3079.274847620758</v>
+        <v>11765.56646735997</v>
       </c>
       <c r="R2">
-        <v>3079.274847620758</v>
+        <v>105890.0982062398</v>
       </c>
       <c r="S2">
-        <v>0.01774010865054557</v>
+        <v>0.03995983092219336</v>
       </c>
       <c r="T2">
-        <v>0.01774010865054557</v>
+        <v>0.03995983092219336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>308.554992397642</v>
+        <v>685.3782603333333</v>
       </c>
       <c r="H3">
-        <v>308.554992397642</v>
+        <v>2056.134781</v>
       </c>
       <c r="I3">
-        <v>0.5292731197506306</v>
+        <v>0.7131285654702259</v>
       </c>
       <c r="J3">
-        <v>0.5292731197506306</v>
+        <v>0.7131285654702259</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>78886.65218312427</v>
+        <v>175761.3518617501</v>
       </c>
       <c r="R3">
-        <v>78886.65218312427</v>
+        <v>1581852.166755751</v>
       </c>
       <c r="S3">
-        <v>0.4544764108626848</v>
+        <v>0.5969448154099476</v>
       </c>
       <c r="T3">
-        <v>0.4544764108626848</v>
+        <v>0.5969448154099476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>308.554992397642</v>
+        <v>685.3782603333333</v>
       </c>
       <c r="H4">
-        <v>308.554992397642</v>
+        <v>2056.134781</v>
       </c>
       <c r="I4">
-        <v>0.5292731197506306</v>
+        <v>0.7131285654702259</v>
       </c>
       <c r="J4">
-        <v>0.5292731197506306</v>
+        <v>0.7131285654702259</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>9903.713526375497</v>
+        <v>22442.97751829885</v>
       </c>
       <c r="R4">
-        <v>9903.713526375497</v>
+        <v>201986.7976646896</v>
       </c>
       <c r="S4">
-        <v>0.05705660023740024</v>
+        <v>0.07622391913808479</v>
       </c>
       <c r="T4">
-        <v>0.05705660023740024</v>
+        <v>0.07622391913808479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>213.04629293092</v>
+        <v>213.8079683333333</v>
       </c>
       <c r="H5">
-        <v>213.04629293092</v>
+        <v>641.423905</v>
       </c>
       <c r="I5">
-        <v>0.3654443418161866</v>
+        <v>0.2224648468854243</v>
       </c>
       <c r="J5">
-        <v>0.3654443418161866</v>
+        <v>0.2224648468854243</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>2126.130211354958</v>
+        <v>3670.340902633216</v>
       </c>
       <c r="R5">
-        <v>2126.130211354958</v>
+        <v>33033.06812369895</v>
       </c>
       <c r="S5">
-        <v>0.01224891665120037</v>
+        <v>0.01246571529750949</v>
       </c>
       <c r="T5">
-        <v>0.01224891665120037</v>
+        <v>0.01246571529750949</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>213.04629293092</v>
+        <v>213.8079683333333</v>
       </c>
       <c r="H6">
-        <v>213.04629293092</v>
+        <v>641.423905</v>
       </c>
       <c r="I6">
-        <v>0.3654443418161866</v>
+        <v>0.2224648468854243</v>
       </c>
       <c r="J6">
-        <v>0.3654443418161866</v>
+        <v>0.2224648468854243</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>54468.43909006195</v>
+        <v>54829.83591397299</v>
       </c>
       <c r="R6">
-        <v>54468.43909006195</v>
+        <v>493468.5232257569</v>
       </c>
       <c r="S6">
-        <v>0.3137998637016532</v>
+        <v>0.1862206106856148</v>
       </c>
       <c r="T6">
-        <v>0.3137998637016532</v>
+        <v>0.1862206106856148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>213.04629293092</v>
+        <v>213.8079683333333</v>
       </c>
       <c r="H7">
-        <v>213.04629293092</v>
+        <v>641.423905</v>
       </c>
       <c r="I7">
-        <v>0.3654443418161866</v>
+        <v>0.2224648468854243</v>
       </c>
       <c r="J7">
-        <v>0.3654443418161866</v>
+        <v>0.2224648468854243</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N7">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q7">
-        <v>6838.163390741601</v>
+        <v>7001.225023105358</v>
       </c>
       <c r="R7">
-        <v>6838.163390741601</v>
+        <v>63011.02520794823</v>
       </c>
       <c r="S7">
-        <v>0.03939556146333306</v>
+        <v>0.02377852090230002</v>
       </c>
       <c r="T7">
-        <v>0.03939556146333306</v>
+        <v>0.02377852090230002</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.3774847684705</v>
+        <v>61.90030400000001</v>
       </c>
       <c r="H8">
-        <v>61.3774847684705</v>
+        <v>185.700912</v>
       </c>
       <c r="I8">
-        <v>0.1052825384331829</v>
+        <v>0.06440658764434989</v>
       </c>
       <c r="J8">
-        <v>0.1052825384331829</v>
+        <v>0.06440658764434989</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N8">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q8">
-        <v>612.5266150748619</v>
+        <v>1062.61342562512</v>
       </c>
       <c r="R8">
-        <v>612.5266150748619</v>
+        <v>9563.520830626081</v>
       </c>
       <c r="S8">
-        <v>0.003528846641011905</v>
+        <v>0.003608993493125055</v>
       </c>
       <c r="T8">
-        <v>0.003528846641011905</v>
+        <v>0.003608993493125055</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.3774847684705</v>
+        <v>61.90030400000001</v>
       </c>
       <c r="H9">
-        <v>61.3774847684705</v>
+        <v>185.700912</v>
       </c>
       <c r="I9">
-        <v>0.1052825384331829</v>
+        <v>0.06440658764434989</v>
       </c>
       <c r="J9">
-        <v>0.1052825384331829</v>
+        <v>0.06440658764434989</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N9">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q9">
-        <v>15692.06271848461</v>
+        <v>15873.98045920216</v>
       </c>
       <c r="R9">
-        <v>15692.06271848461</v>
+        <v>142865.8241328194</v>
       </c>
       <c r="S9">
-        <v>0.09040404359883158</v>
+        <v>0.05391339014331811</v>
       </c>
       <c r="T9">
-        <v>0.09040404359883158</v>
+        <v>0.05391339014331811</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>61.3774847684705</v>
+        <v>61.90030400000001</v>
       </c>
       <c r="H10">
-        <v>61.3774847684705</v>
+        <v>185.700912</v>
       </c>
       <c r="I10">
-        <v>0.1052825384331829</v>
+        <v>0.06440658764434989</v>
       </c>
       <c r="J10">
-        <v>0.1052825384331829</v>
+        <v>0.06440658764434989</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N10">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q10">
-        <v>1970.037889819775</v>
+        <v>2026.949513064821</v>
       </c>
       <c r="R10">
-        <v>1970.037889819775</v>
+        <v>18242.54561758339</v>
       </c>
       <c r="S10">
-        <v>0.01134964819333938</v>
+        <v>0.006884204007906718</v>
       </c>
       <c r="T10">
-        <v>0.01134964819333938</v>
+        <v>0.006884204007906718</v>
       </c>
     </row>
   </sheetData>
